--- a/datasets/pfp.xlsx
+++ b/datasets/pfp.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="pfp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>NLQ</t>
   </si>
@@ -223,6 +223,51 @@
   </si>
   <si>
     <t>SELECT field, state, AVG(oil_production) as avg_oil_production FROM (SELECT field, state, SUM(oil_production) as oil_production FROM NLIDB_RESULT_SET GROUP BY field, state, year) GROUP BY field, state ORDER BY field, state</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>Which field produces the most oil per month?</t>
+  </si>
+  <si>
+    <t>Which field produces the oil month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT field, oil_production, year, month FROM ANP </t>
+  </si>
+  <si>
+    <t>SELECT year, month, field, max(oil_production) as max_oil_production FROM NLIDB_RESULT_SET GROUP BY year, month, field ORDER BY year, month, field</t>
+  </si>
+  <si>
+    <t>Which basin has the highest yearly oil production?</t>
+  </si>
+  <si>
+    <t>Which basin has the year oil production?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT basin, year, oil_production FROM ANP </t>
+  </si>
+  <si>
+    <t>SELECT basin, max(oil_production) as max_oil_production FROM (SELECT basin, SUM(oil_production) as oil_production FROM NLIDB_RESULT_SET GROUP BY basin, year) GROUP BY basin ORDER BY basin</t>
+  </si>
+  <si>
+    <t>Which federated state has the lowest gas production?</t>
+  </si>
+  <si>
+    <t>Which federated state has the gas production?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT state, gas_production FROM ANP </t>
+  </si>
+  <si>
+    <t>SELECT state, min(gas_production) as min_gas_production FROM NLIDB_RESULT_SET GROUP BY state ORDER BY state</t>
+  </si>
+  <si>
+    <t>Which state of the federation has the lowest gas production?</t>
+  </si>
+  <si>
+    <t>Which state of the federation has the gas production?</t>
   </si>
 </sst>
 </file>
@@ -767,13 +812,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E22" totalsRowShown="0">
+  <autoFilter ref="A1:E22"/>
+  <tableColumns count="5">
     <tableColumn id="4" name="NLQ"/>
     <tableColumn id="1" name="NLQ preproccessed by GLAMORISE"/>
     <tableColumn id="2" name="NLIDB SQL"/>
     <tableColumn id="3" name="GLAMORISE SQL"/>
+    <tableColumn id="5" name="insert">
+      <calculatedColumnFormula>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1042,21 +1090,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="192.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="192.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="206.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1118,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1135,12 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in state of Rio de Janeiro?', 'SELECT oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1097,8 +1153,12 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil in state of Rio de Janeiro?', 'SELECT year, month, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1111,8 +1171,12 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil in state of Alagoas?', 'SELECT year, oil_production FROM ANP WHERE lower(state) = ''alagoas''');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1189,12 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('fields are there in Paraná?', 'SELECT distinct field FROM ANP WHERE lower(state) = ''paraná''');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1139,8 +1207,12 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in state of Ceará field?', 'SELECT oil_production, field FROM ANP WHERE lower(state) = ''ceará''');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1153,8 +1225,12 @@
       <c r="D7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production in state of São Paulo basin?', 'SELECT gas_production, basin FROM ANP WHERE lower(state) = ''são paulo''');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1167,8 +1243,12 @@
       <c r="D8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month oil production of the operator Petrobras?', 'SELECT year, month, oil_production FROM ANP WHERE lower(operator) = ''petrobras''');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1181,8 +1261,12 @@
       <c r="D9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year gas production field?', 'SELECT year, gas_production, field FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1195,8 +1279,12 @@
       <c r="D10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production month field?', 'SELECT gas_production, year, month, field FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1209,8 +1297,12 @@
       <c r="D11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month gas production field?', 'SELECT year, month, gas_production, field FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1223,8 +1315,12 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the field gas production month?', 'SELECT field, gas_production, year, month FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1237,8 +1333,12 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month petroleum production field in state of Rio de Janeiro?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1251,8 +1351,12 @@
       <c r="D14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year petroleum production field by Rio de Janeiro?', 'SELECT year, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1265,8 +1369,12 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil field in state of Rio de Janeiro and year 2015?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro'' and year = 2015');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1279,8 +1387,12 @@
       <c r="D16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil field state in the year of 2015?', 'SELECT year, oil_production, field, state FROM ANP WHERE year = 2015');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1293,8 +1405,12 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production field with production greater than 100 cubic meters?', 'SELECT gas_production, field FROM ANP WHERE gas_production &gt; 100');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1306,6 +1422,82 @@
       </c>
       <c r="D18" t="s">
         <v>58</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production basin with production less than 1000 cubic meters?', 'SELECT gas_production, basin FROM ANP WHERE gas_production &lt; 1000');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which field produces the oil month?', 'SELECT field, oil_production, year, month FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which basin has the year oil production?', 'SELECT basin, year, oil_production FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which federated state has the gas production?', 'SELECT state, gas_production FROM ANP ');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="str">
+        <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which state of the federation has the gas production?', 'SELECT state, gas_production FROM ANP ');</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/pfp.xlsx
+++ b/datasets/pfp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>NLQ</t>
   </si>
@@ -33,48 +33,15 @@
     <t>GLAMORISE SQL</t>
   </si>
   <si>
-    <t>What was the production of oil in state of Rio de Janeiro?</t>
-  </si>
-  <si>
     <t>SELECT * FROM NLIDB_RESULT_SET</t>
   </si>
   <si>
-    <t>What was the average monthly production of oil in state of Rio de Janeiro?</t>
-  </si>
-  <si>
-    <t>What was the month production of oil in state of Rio de Janeiro?</t>
-  </si>
-  <si>
-    <t>What was the average yearly production of oil in state of Alagoas?</t>
-  </si>
-  <si>
-    <t>What was the year production of oil in state of Alagoas?</t>
-  </si>
-  <si>
     <t>How many fields are there in Paraná?</t>
   </si>
   <si>
     <t>fields are there in Paraná?</t>
   </si>
   <si>
-    <t>What was the maximum production of oil in state of Ceará per field?</t>
-  </si>
-  <si>
-    <t>What was the production of oil in state of Ceará field?</t>
-  </si>
-  <si>
-    <t>What was the minimum gas production in state of São Paulo per basin?</t>
-  </si>
-  <si>
-    <t>What was the gas production in state of São Paulo basin?</t>
-  </si>
-  <si>
-    <t>What was the average monthly oil production of the operator Petrobras?</t>
-  </si>
-  <si>
-    <t>What was the month oil production of the operator Petrobras?</t>
-  </si>
-  <si>
     <t>What was the mean yearly gas production per field?</t>
   </si>
   <si>
@@ -102,24 +69,12 @@
     <t xml:space="preserve">SELECT field, gas_production, year, month FROM ANP </t>
   </si>
   <si>
-    <t>What was the mean monthly petroleum production by field in state of Rio de Janeiro?</t>
-  </si>
-  <si>
-    <t>What was the month petroleum production field in state of Rio de Janeiro?</t>
-  </si>
-  <si>
     <t>What was the mean yearly petroleum production by field by Rio de Janeiro?</t>
   </si>
   <si>
     <t>What was the year petroleum production field by Rio de Janeiro?</t>
   </si>
   <si>
-    <t>What was the average monthly production of oil per field in state of Rio de Janeiro and year 2015?</t>
-  </si>
-  <si>
-    <t>What was the average yearly production of oil per field and state in the year of 2015?</t>
-  </si>
-  <si>
     <t>What was the mean gas production per field with production greater than 100 cubic meters?</t>
   </si>
   <si>
@@ -153,9 +108,6 @@
     <t>SELECT gas_production, basin FROM ANP WHERE lower(state) = 'são paulo'</t>
   </si>
   <si>
-    <t>SELECT year, month, oil_production FROM ANP WHERE lower(operator) = 'petrobras'</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT year, gas_production, field FROM ANP </t>
   </si>
   <si>
@@ -177,12 +129,6 @@
     <t>SELECT year, oil_production, field, state FROM ANP WHERE year = 2015</t>
   </si>
   <si>
-    <t>What was the year production of oil field state in the year of 2015?</t>
-  </si>
-  <si>
-    <t>What was the month production of oil field in state of Rio de Janeiro and year 2015?</t>
-  </si>
-  <si>
     <t>What was the gas production field with production greater than 100 cubic meters?</t>
   </si>
   <si>
@@ -268,6 +214,66 @@
   </si>
   <si>
     <t>Which state of the federation has the gas production?</t>
+  </si>
+  <si>
+    <t>What was the production of oil in the state of Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>What was the average monthly production of oil in the state of Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>What was the month production of oil in the state of Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>What was the average yearly production of oil in the state of Alagoas?</t>
+  </si>
+  <si>
+    <t>What was the year production of oil in the state of Alagoas?</t>
+  </si>
+  <si>
+    <t>What was the maximum production of oil in the state of Ceará per field?</t>
+  </si>
+  <si>
+    <t>What was the production of oil in the state of Ceará field?</t>
+  </si>
+  <si>
+    <t>What was the minimum gas production in the state of São Paulo per basin?</t>
+  </si>
+  <si>
+    <t>What was the gas production in the state of São Paulo basin?</t>
+  </si>
+  <si>
+    <t>What was the mean monthly petroleum production by field in the state of Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>What was the month petroleum production field in the state of Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>What was the average monthly production of oil per field in the state of Rio de Janeiro and year 2015?</t>
+  </si>
+  <si>
+    <t>What was the average yearly production of oil per field and state in the year in 2015?</t>
+  </si>
+  <si>
+    <t>What was the year production of oil field state in the year in 2015?</t>
+  </si>
+  <si>
+    <t>What was the average monthly oil production by the operator Petrobrás?</t>
+  </si>
+  <si>
+    <t>SELECT year, month, oil_production, operator FROM ANP WHERE lower(operator) = 'petrobras'</t>
+  </si>
+  <si>
+    <t>What was the month production of oil field in the state of Rio de Janeiro year 2015?</t>
+  </si>
+  <si>
+    <t>What was the month oil production the operator Petrobrás?</t>
+  </si>
+  <si>
+    <t>select operator, avg(oil_production) as avg_oil_production from (select operator, sum(oil_production) as oil_production from nlidb_result_set group by operator, year, month) group by operator order by operator</t>
+  </si>
+  <si>
+    <t>select field, year, avg(oil_production) as avg_oil_production from (select field, year, sum(oil_production) as oil_production from nlidb_result_set group by field, year, year, month) group by field, year order by field, year</t>
   </si>
 </sst>
 </file>
@@ -1092,14 +1098,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="192.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="206.28515625" bestFit="1" customWidth="1"/>
@@ -1119,75 +1125,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in state of Rio de Janeiro?', 'SELECT oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in the state of Rio de Janeiro?', 'SELECT oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E3" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil in state of Rio de Janeiro?', 'SELECT year, month, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil in the state of Rio de Janeiro?', 'SELECT year, month, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E4" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil in state of Alagoas?', 'SELECT year, oil_production FROM ANP WHERE lower(state) = ''alagoas''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil in the state of Alagoas?', 'SELECT year, oil_production FROM ANP WHERE lower(state) = ''alagoas''');</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E5" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1196,70 +1202,70 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E6" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in state of Ceará field?', 'SELECT oil_production, field FROM ANP WHERE lower(state) = ''ceará''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in the state of Ceará field?', 'SELECT oil_production, field FROM ANP WHERE lower(state) = ''ceará''');</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E7" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production in state of São Paulo basin?', 'SELECT gas_production, basin FROM ANP WHERE lower(state) = ''são paulo''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production in the state of São Paulo basin?', 'SELECT gas_production, basin FROM ANP WHERE lower(state) = ''são paulo''');</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E8" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month oil production of the operator Petrobras?', 'SELECT year, month, oil_production FROM ANP WHERE lower(operator) = ''petrobras''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month oil production the operator Petrobrás?', 'SELECT year, month, oil_production, operator FROM ANP WHERE lower(operator) = ''petrobras''');</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E9" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1268,16 +1274,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E10" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1286,16 +1292,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E11" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1304,16 +1310,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E12" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1322,34 +1328,34 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E13" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month petroleum production field in state of Rio de Janeiro?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month petroleum production field in the state of Rio de Janeiro?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E14" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1358,52 +1364,52 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E15" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil field in state of Rio de Janeiro and year 2015?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro'' and year = 2015');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil field in the state of Rio de Janeiro year 2015?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro'' and year = 2015');</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E16" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
-        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil field state in the year of 2015?', 'SELECT year, oil_production, field, state FROM ANP WHERE year = 2015');</v>
+        <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil field state in the year in 2015?', 'SELECT year, oil_production, field, state FROM ANP WHERE year = 2015');</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E17" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1412,16 +1418,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E18" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1430,16 +1436,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E19" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1448,16 +1454,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E20" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1466,16 +1472,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E21" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
@@ -1484,16 +1490,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E22" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>

--- a/datasets/pfp.xlsx
+++ b/datasets/pfp.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8910" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pfp" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráf1" sheetId="2" r:id="rId1"/>
+    <sheet name="pfp" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
   <si>
     <t>NLQ</t>
   </si>
@@ -274,13 +275,103 @@
   </si>
   <si>
     <t>select field, year, avg(oil_production) as avg_oil_production from (select field, year, sum(oil_production) as oil_production from nlidb_result_set group by field, year, year, month) group by field, year order by field, year</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>Aggregation Elements</t>
+  </si>
+  <si>
+    <t>AF, CTSAF</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AF, G</t>
+  </si>
+  <si>
+    <t>AF, CTSAF, G</t>
+  </si>
+  <si>
+    <t>AF, 2xG</t>
+  </si>
+  <si>
+    <t>AF, G, CH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +505,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -757,8 +854,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -804,7 +904,13 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -817,11 +923,803 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-748504544"/>
+        <c:axId val="-748485504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-748504544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-748485504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-748485504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-748504544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9622194" cy="6019541"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E22" totalsRowShown="0">
-  <autoFilter ref="A1:E22"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:H23" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="6" name="ID" dataDxfId="0"/>
     <tableColumn id="4" name="NLQ"/>
+    <tableColumn id="7" name="Aggregation Elements"/>
     <tableColumn id="1" name="NLQ preproccessed by GLAMORISE"/>
     <tableColumn id="2" name="NLIDB SQL"/>
     <tableColumn id="3" name="GLAMORISE SQL"/>
@@ -1096,412 +1994,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="192.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="206.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
+      <c r="H3" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in the state of Rio de Janeiro?', 'SELECT oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="str">
+      <c r="H4" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil in the state of Rio de Janeiro?', 'SELECT year, month, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="str">
+      <c r="H5" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil in the state of Alagoas?', 'SELECT year, oil_production FROM ANP WHERE lower(state) = ''alagoas''');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="str">
+      <c r="H6" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('fields are there in Paraná?', 'SELECT distinct field FROM ANP WHERE lower(state) = ''paraná''');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="str">
+      <c r="H7" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the production of oil in the state of Ceará field?', 'SELECT oil_production, field FROM ANP WHERE lower(state) = ''ceará''');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="str">
+      <c r="H8" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production in the state of São Paulo basin?', 'SELECT gas_production, basin FROM ANP WHERE lower(state) = ''são paulo''');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
         <v>82</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E8" t="str">
+      <c r="H9" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month oil production the operator Petrobrás?', 'SELECT year, month, oil_production, operator FROM ANP WHERE lower(operator) = ''petrobras''');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="str">
+      <c r="H10" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year gas production field?', 'SELECT year, gas_production, field FROM ANP ');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="str">
+      <c r="H11" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production month field?', 'SELECT gas_production, year, month, field FROM ANP ');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="str">
+      <c r="H12" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month gas production field?', 'SELECT year, month, gas_production, field FROM ANP ');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="str">
+      <c r="H13" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the field gas production month?', 'SELECT field, gas_production, year, month FROM ANP ');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="str">
+      <c r="H14" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month petroleum production field in the state of Rio de Janeiro?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="str">
+      <c r="H15" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year petroleum production field by Rio de Janeiro?', 'SELECT year, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro''');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="str">
+      <c r="H16" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the month production of oil field in the state of Rio de Janeiro year 2015?', 'SELECT year, month, field, oil_production FROM ANP WHERE lower(state) = ''rio de janeiro'' and year = 2015');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="str">
+      <c r="H17" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the year production of oil field state in the year in 2015?', 'SELECT year, oil_production, field, state FROM ANP WHERE year = 2015');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="str">
+      <c r="H18" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production field with production greater than 100 cubic meters?', 'SELECT gas_production, field FROM ANP WHERE gas_production &gt; 100');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="str">
+      <c r="H19" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('What was the gas production basin with production less than 1000 cubic meters?', 'SELECT gas_production, basin FROM ANP WHERE gas_production &lt; 1000');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="str">
+      <c r="H20" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which field produces the oil month?', 'SELECT field, oil_production, year, month FROM ANP ');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F21" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="str">
+      <c r="H21" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which basin has the year oil production?', 'SELECT basin, year, oil_production FROM ANP ');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G22" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="str">
+      <c r="H22" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which federated state has the gas production?', 'SELECT state, gas_production FROM ANP ');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="str">
+      <c r="H23" t="str">
         <f>"INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('"&amp;Tabela1[[#This Row],[NLQ preproccessed by GLAMORISE]]&amp;"', '"&amp;SUBSTITUTE(Tabela1[[#This Row],[NLIDB SQL]],"'","''")&amp;"');"</f>
         <v>INSERT INTO NLIDB_SQL_FROM_NLQ  VALUES('Which state of the federation has the gas production?', 'SELECT state, gas_production FROM ANP ');</v>
       </c>
